--- a/Code/Results/Cases/Case_5_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_81/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.028811312774735</v>
+        <v>0.466837306709067</v>
       </c>
       <c r="C2">
-        <v>0.1367285129810227</v>
+        <v>0.0398775350072782</v>
       </c>
       <c r="D2">
-        <v>0.2062476019963384</v>
+        <v>0.1873939752032499</v>
       </c>
       <c r="E2">
-        <v>0.1715253597013913</v>
+        <v>0.166210065083483</v>
       </c>
       <c r="F2">
-        <v>0.8236630310591764</v>
+        <v>1.484535831506925</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1867401625103255</v>
+        <v>0.1890045645124232</v>
       </c>
       <c r="K2">
-        <v>1.069671421543319</v>
+        <v>0.429863010182487</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8030113994381363</v>
+        <v>1.667300998228932</v>
       </c>
       <c r="O2">
-        <v>1.840641396103308</v>
+        <v>3.623486681340438</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8938311884135715</v>
+        <v>0.4287475654596165</v>
       </c>
       <c r="C3">
-        <v>0.1201571198414086</v>
+        <v>0.03478104256780057</v>
       </c>
       <c r="D3">
-        <v>0.181965732481487</v>
+        <v>0.1815751677574298</v>
       </c>
       <c r="E3">
-        <v>0.1525436129707387</v>
+        <v>0.1620237846593753</v>
       </c>
       <c r="F3">
-        <v>0.7876768494099977</v>
+        <v>1.485436559375884</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1671968000292807</v>
+        <v>0.184997984565868</v>
       </c>
       <c r="K3">
-        <v>0.9290491959735618</v>
+        <v>0.3893307655359308</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8445177542130591</v>
+        <v>1.684937734256404</v>
       </c>
       <c r="O3">
-        <v>1.797959449537814</v>
+        <v>3.638125709781917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.811256877653534</v>
+        <v>0.4054897257903463</v>
       </c>
       <c r="C4">
-        <v>0.1099794863879282</v>
+        <v>0.03164125845404442</v>
       </c>
       <c r="D4">
-        <v>0.1671834532189393</v>
+        <v>0.1780815867062699</v>
       </c>
       <c r="E4">
-        <v>0.1410489552884897</v>
+        <v>0.1595368129236796</v>
       </c>
       <c r="F4">
-        <v>0.7669914707585193</v>
+        <v>1.486746116947181</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1554215813994873</v>
+        <v>0.1826434735644256</v>
       </c>
       <c r="K4">
-        <v>0.8429326708488531</v>
+        <v>0.3645219074932697</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8710962110194416</v>
+        <v>1.696319255513841</v>
       </c>
       <c r="O4">
-        <v>1.775288918912537</v>
+        <v>3.648967928411508</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7776701156685135</v>
+        <v>0.3960450350762699</v>
       </c>
       <c r="C5">
-        <v>0.1058299939610094</v>
+        <v>0.03035919039118085</v>
       </c>
       <c r="D5">
-        <v>0.1611886003838947</v>
+        <v>0.1766779432699508</v>
       </c>
       <c r="E5">
-        <v>0.1364018537338403</v>
+        <v>0.1585443799780357</v>
       </c>
       <c r="F5">
-        <v>0.7588993509075266</v>
+        <v>1.487470109109765</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1506752267629707</v>
+        <v>0.1817105536292871</v>
       </c>
       <c r="K5">
-        <v>0.8078829122553373</v>
+        <v>0.3544322752698292</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8821955696481143</v>
+        <v>1.701096241540294</v>
       </c>
       <c r="O5">
-        <v>1.766899378902039</v>
+        <v>3.653852443779911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.772096479732113</v>
+        <v>0.3944787640630807</v>
       </c>
       <c r="C6">
-        <v>0.1051408141329802</v>
+        <v>0.03014614999635512</v>
       </c>
       <c r="D6">
-        <v>0.1601948330380907</v>
+        <v>0.1764460815811617</v>
       </c>
       <c r="E6">
-        <v>0.1356323535217534</v>
+        <v>0.1583808588063071</v>
       </c>
       <c r="F6">
-        <v>0.7575755454283879</v>
+        <v>1.487601826499009</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1498901256462872</v>
+        <v>0.1815572479465573</v>
       </c>
       <c r="K6">
-        <v>0.8020651709036315</v>
+        <v>0.3527581341589325</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8840546370834277</v>
+        <v>1.701897846966586</v>
       </c>
       <c r="O6">
-        <v>1.765556429556554</v>
+        <v>3.654691674725214</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8108036773274421</v>
+        <v>0.4053622168017057</v>
       </c>
       <c r="C7">
-        <v>0.1099235347857075</v>
+        <v>0.03162397839965081</v>
       </c>
       <c r="D7">
-        <v>0.1671024906083574</v>
+        <v>0.1780625754816469</v>
       </c>
       <c r="E7">
-        <v>0.140986136920251</v>
+        <v>0.15952334341506</v>
       </c>
       <c r="F7">
-        <v>0.7668809939612089</v>
+        <v>1.486755110151257</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1553573648130921</v>
+        <v>0.1826307842997466</v>
       </c>
       <c r="K7">
-        <v>0.8424598189352253</v>
+        <v>0.364385752766367</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8712448223993003</v>
+        <v>1.696383117128624</v>
       </c>
       <c r="O7">
-        <v>1.775172389451797</v>
+        <v>3.649031914882983</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9821986676255392</v>
+        <v>0.4536774065601321</v>
       </c>
       <c r="C8">
-        <v>0.1310144279858747</v>
+        <v>0.03812248416728892</v>
       </c>
       <c r="D8">
-        <v>0.1978471046236479</v>
+        <v>0.1853712760129866</v>
       </c>
       <c r="E8">
-        <v>0.1649452072049158</v>
+        <v>0.1647493505914639</v>
       </c>
       <c r="F8">
-        <v>0.8109516141260329</v>
+        <v>1.484689449904295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1799523550030173</v>
+        <v>0.1876012014553581</v>
       </c>
       <c r="K8">
-        <v>1.021129600416799</v>
+        <v>0.4158715922706051</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8170918435923391</v>
+        <v>1.67326747299223</v>
       </c>
       <c r="O8">
-        <v>1.825165771662398</v>
+        <v>3.628149500113125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.321377920384919</v>
+        <v>0.549432037787227</v>
       </c>
       <c r="C9">
-        <v>0.1724184347546611</v>
+        <v>0.05078036546194653</v>
       </c>
       <c r="D9">
-        <v>0.2592831127533657</v>
+        <v>0.200328170828584</v>
       </c>
       <c r="E9">
-        <v>0.2133557016578962</v>
+        <v>0.1756578958780466</v>
       </c>
       <c r="F9">
-        <v>0.9093909282795352</v>
+        <v>1.486638268594092</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2301716459666636</v>
+        <v>0.1981853946697782</v>
       </c>
       <c r="K9">
-        <v>1.37395402941894</v>
+        <v>0.5174363035352769</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7198801173867613</v>
+        <v>1.632321110503864</v>
       </c>
       <c r="O9">
-        <v>1.953188518430579</v>
+        <v>3.601907847604792</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.573447253626313</v>
+        <v>0.6203807254739786</v>
       </c>
       <c r="C10">
-        <v>0.2029672745077136</v>
+        <v>0.06002577945206156</v>
       </c>
       <c r="D10">
-        <v>0.305327546892471</v>
+        <v>0.2116939613100328</v>
       </c>
       <c r="E10">
-        <v>0.2500250128448087</v>
+        <v>0.184073931529646</v>
       </c>
       <c r="F10">
-        <v>0.9902638686792358</v>
+        <v>1.491726132786326</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2685889349355648</v>
+        <v>0.2064727756210232</v>
       </c>
       <c r="K10">
-        <v>1.635669497547639</v>
+        <v>0.5924049034930761</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6543805935760445</v>
+        <v>1.604908412260271</v>
       </c>
       <c r="O10">
-        <v>2.068372043306084</v>
+        <v>3.591598606151763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.68898367414684</v>
+        <v>0.652783708896294</v>
       </c>
       <c r="C11">
-        <v>0.2169175697842718</v>
+        <v>0.06421956658071792</v>
       </c>
       <c r="D11">
-        <v>0.3265210883770777</v>
+        <v>0.2169456804100776</v>
       </c>
       <c r="E11">
-        <v>0.2670014582501992</v>
+        <v>0.1879896311423366</v>
       </c>
       <c r="F11">
-        <v>1.029202416042907</v>
+        <v>1.494834492637878</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2864698954331573</v>
+        <v>0.2103541482696585</v>
       </c>
       <c r="K11">
-        <v>1.755512389458318</v>
+        <v>0.6265825886491712</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6259749502679701</v>
+        <v>1.593017225745982</v>
       </c>
       <c r="O11">
-        <v>2.126035616379625</v>
+        <v>3.58885764190461</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.732880222638244</v>
+        <v>0.665071854851476</v>
       </c>
       <c r="C12">
-        <v>0.222210057208784</v>
+        <v>0.06580586585292281</v>
       </c>
       <c r="D12">
-        <v>0.3345864992933372</v>
+        <v>0.218945979398228</v>
       </c>
       <c r="E12">
-        <v>0.2734773576317906</v>
+        <v>0.1894849071571585</v>
       </c>
       <c r="F12">
-        <v>1.04428239891007</v>
+        <v>1.496125647310592</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2933056896757762</v>
+        <v>0.2118399368558528</v>
       </c>
       <c r="K12">
-        <v>1.801028019548681</v>
+        <v>0.6395349956356142</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6154280668617051</v>
+        <v>1.588597615513275</v>
       </c>
       <c r="O12">
-        <v>2.148689082913734</v>
+        <v>3.588099970784299</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.723419505992666</v>
+        <v>0.6624245985353525</v>
       </c>
       <c r="C13">
-        <v>0.2210697531896244</v>
+        <v>0.06546430897910227</v>
       </c>
       <c r="D13">
-        <v>0.3328476242161003</v>
+        <v>0.2185146656916572</v>
       </c>
       <c r="E13">
-        <v>0.2720804734127</v>
+        <v>0.1891623182800259</v>
       </c>
       <c r="F13">
-        <v>1.041019334642371</v>
+        <v>1.495842501159544</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2918304953068827</v>
+        <v>0.2115192345895167</v>
       </c>
       <c r="K13">
-        <v>1.791219123227421</v>
+        <v>0.6367450251275955</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6176900368177241</v>
+        <v>1.589545750708316</v>
       </c>
       <c r="O13">
-        <v>2.143772888481919</v>
+        <v>3.588250682931459</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.692592032646701</v>
+        <v>0.6537943078373019</v>
       </c>
       <c r="C14">
-        <v>0.2173527764436329</v>
+        <v>0.06435010879853564</v>
       </c>
       <c r="D14">
-        <v>0.3271838099457227</v>
+        <v>0.2171100146406246</v>
       </c>
       <c r="E14">
-        <v>0.2675332578929357</v>
+        <v>0.188112398481934</v>
       </c>
       <c r="F14">
-        <v>1.030436191333649</v>
+        <v>1.494938430656617</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2870309457337186</v>
+        <v>0.2104760645167119</v>
       </c>
       <c r="K14">
-        <v>1.759254184551821</v>
+        <v>0.6276479927722391</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6251029903855705</v>
+        <v>1.592651951424741</v>
       </c>
       <c r="O14">
-        <v>2.127882585862437</v>
+        <v>3.588789690519235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.673728885605101</v>
+        <v>0.6485103116750111</v>
       </c>
       <c r="C15">
-        <v>0.2150773648759241</v>
+        <v>0.06366739288553447</v>
       </c>
       <c r="D15">
-        <v>0.3237198847406688</v>
+        <v>0.2162511309136477</v>
       </c>
       <c r="E15">
-        <v>0.2647542639792704</v>
+        <v>0.1874709166665269</v>
       </c>
       <c r="F15">
-        <v>1.023998107077063</v>
+        <v>1.494399516668281</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2840997037074686</v>
+        <v>0.2098391753367537</v>
       </c>
       <c r="K15">
-        <v>1.739692787460967</v>
+        <v>0.6220770901435912</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6296712514599174</v>
+        <v>1.59456544231844</v>
       </c>
       <c r="O15">
-        <v>2.118257643873591</v>
+        <v>3.589156349269643</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.565915876483842</v>
+        <v>0.6182656420854755</v>
       </c>
       <c r="C16">
-        <v>0.2020568435519721</v>
+        <v>0.05975145804798387</v>
       </c>
       <c r="D16">
-        <v>0.3039478407271758</v>
+        <v>0.2113523767058183</v>
       </c>
       <c r="E16">
-        <v>0.2489219098362128</v>
+        <v>0.18381978147643</v>
       </c>
       <c r="F16">
-        <v>0.9877645494831313</v>
+        <v>1.491538962727248</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2674290584261172</v>
+        <v>0.2062213585673476</v>
       </c>
       <c r="K16">
-        <v>1.627855043585726</v>
+        <v>0.5901727514633706</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6562657686456328</v>
+        <v>1.605697185576932</v>
       </c>
       <c r="O16">
-        <v>2.064714615846015</v>
+        <v>3.591816952347472</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.500012720143218</v>
+        <v>0.5997439082712788</v>
       </c>
       <c r="C17">
-        <v>0.1940843286105718</v>
+        <v>0.05734603491080748</v>
       </c>
       <c r="D17">
-        <v>0.2918847113105443</v>
+        <v>0.2083679085380936</v>
       </c>
       <c r="E17">
-        <v>0.2392882481672274</v>
+        <v>0.1816022246264168</v>
       </c>
       <c r="F17">
-        <v>0.9661046344979667</v>
+        <v>1.489987383283307</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2573102755727064</v>
+        <v>0.2040304619397801</v>
       </c>
       <c r="K17">
-        <v>1.559461964812613</v>
+        <v>0.5706190266997453</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6729435129226953</v>
+        <v>1.612674488373436</v>
       </c>
       <c r="O17">
-        <v>2.03325803103138</v>
+        <v>3.593948301275049</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.462187432976833</v>
+        <v>0.5891027858824032</v>
       </c>
       <c r="C18">
-        <v>0.1895036450249705</v>
+        <v>0.05596137410451263</v>
       </c>
       <c r="D18">
-        <v>0.2849693608581561</v>
+        <v>0.2066589865260511</v>
       </c>
       <c r="E18">
-        <v>0.2337747169883002</v>
+        <v>0.1803349557725227</v>
       </c>
       <c r="F18">
-        <v>0.953847056384987</v>
+        <v>1.489169682377977</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2515279023509009</v>
+        <v>0.2027808031476326</v>
       </c>
       <c r="K18">
-        <v>1.520196854029649</v>
+        <v>0.5593792509651223</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6826663596250053</v>
+        <v>1.616742141277443</v>
       </c>
       <c r="O18">
-        <v>2.015656846762084</v>
+        <v>3.595357620847864</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.449393660677231</v>
+        <v>0.5855019785529407</v>
       </c>
       <c r="C19">
-        <v>0.187953483282584</v>
+        <v>0.05549236070316965</v>
       </c>
       <c r="D19">
-        <v>0.2826317746080065</v>
+        <v>0.2060816948336992</v>
       </c>
       <c r="E19">
-        <v>0.2319125114322702</v>
+        <v>0.1799072922367344</v>
       </c>
       <c r="F19">
-        <v>0.9497305535149678</v>
+        <v>1.488905659406797</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2495763728021387</v>
+        <v>0.20235949198063</v>
       </c>
       <c r="K19">
-        <v>1.506914261240098</v>
+        <v>0.5555748780585645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.685980431703163</v>
+        <v>1.61812873589201</v>
       </c>
       <c r="O19">
-        <v>2.009780088588798</v>
+        <v>3.595866294196554</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.507019752160943</v>
+        <v>0.6017143314647058</v>
       </c>
       <c r="C20">
-        <v>0.1949324948714519</v>
+        <v>0.05760221326735859</v>
       </c>
       <c r="D20">
-        <v>0.2931664373059988</v>
+        <v>0.2086848177748379</v>
       </c>
       <c r="E20">
-        <v>0.2403108883672118</v>
+        <v>0.1818374379024164</v>
       </c>
       <c r="F20">
-        <v>0.9683894237804367</v>
+        <v>1.49014481815469</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2583834918903705</v>
+        <v>0.2042626014225846</v>
       </c>
       <c r="K20">
-        <v>1.566734848574811</v>
+        <v>0.5726998329275546</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6711545895509179</v>
+        <v>1.611926102297032</v>
       </c>
       <c r="O20">
-        <v>2.036555314321163</v>
+        <v>3.593702431526793</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.70164269167563</v>
+        <v>0.6563287538614873</v>
       </c>
       <c r="C21">
-        <v>0.2184442584823074</v>
+        <v>0.06467742573747159</v>
       </c>
       <c r="D21">
-        <v>0.3288462918299757</v>
+        <v>0.2175222811386703</v>
       </c>
       <c r="E21">
-        <v>0.2688675618944742</v>
+        <v>0.1884204469554334</v>
       </c>
       <c r="F21">
-        <v>1.03353541628077</v>
+        <v>1.495200882373851</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2884388810514338</v>
+        <v>0.2107820348803102</v>
       </c>
       <c r="K21">
-        <v>1.768639261278196</v>
+        <v>0.6303197434259857</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6229198533153069</v>
+        <v>1.591737323045725</v>
       </c>
       <c r="O21">
-        <v>2.132527264010264</v>
+        <v>3.588623764064579</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.829698219884335</v>
+        <v>0.6921261495429007</v>
       </c>
       <c r="C22">
-        <v>0.2338688698019098</v>
+        <v>0.06929097923779182</v>
       </c>
       <c r="D22">
-        <v>0.3523997658158606</v>
+        <v>0.2233655592518744</v>
       </c>
       <c r="E22">
-        <v>0.2878091127135249</v>
+        <v>0.192795573955415</v>
       </c>
       <c r="F22">
-        <v>1.078076851173009</v>
+        <v>1.499170261686785</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3084620591972396</v>
+        <v>0.215136093617005</v>
       </c>
       <c r="K22">
-        <v>1.901385592540436</v>
+        <v>0.6680360431938084</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5926230858791595</v>
+        <v>1.579028497735139</v>
       </c>
       <c r="O22">
-        <v>2.200046734101477</v>
+        <v>3.586938224310842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.761266886009366</v>
+        <v>0.6730111066834183</v>
       </c>
       <c r="C23">
-        <v>0.2256303802900561</v>
+        <v>0.06682962392098091</v>
       </c>
       <c r="D23">
-        <v>0.3398058793146532</v>
+        <v>0.2202407543040437</v>
       </c>
       <c r="E23">
-        <v>0.2776725229337131</v>
+        <v>0.1904538476578281</v>
       </c>
       <c r="F23">
-        <v>1.054115477259771</v>
+        <v>1.49699090974957</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2977382613942439</v>
+        <v>0.2128037272823917</v>
       </c>
       <c r="K23">
-        <v>1.830456889546298</v>
+        <v>0.6479010011782691</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6086773238773782</v>
+        <v>1.585766971922476</v>
       </c>
       <c r="O23">
-        <v>2.163550418254175</v>
+        <v>3.587688334067735</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.503851677303004</v>
+        <v>0.6008234804529877</v>
       </c>
       <c r="C24">
-        <v>0.1945490302753683</v>
+        <v>0.05748640048206255</v>
       </c>
       <c r="D24">
-        <v>0.2925869073074239</v>
+        <v>0.2085415216443636</v>
       </c>
       <c r="E24">
-        <v>0.2398484752565935</v>
+        <v>0.1817310741976925</v>
       </c>
       <c r="F24">
-        <v>0.9673558651055032</v>
+        <v>1.490073410332343</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2578981821038155</v>
+        <v>0.2041576202716868</v>
       </c>
       <c r="K24">
-        <v>1.563446608105096</v>
+        <v>0.5717590944033759</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6719629433231904</v>
+        <v>1.612264272245757</v>
       </c>
       <c r="O24">
-        <v>2.035063110668517</v>
+        <v>3.593813016155366</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.229192520981371</v>
+        <v>0.5234216593057113</v>
       </c>
       <c r="C25">
-        <v>0.1612026804791356</v>
+        <v>0.04736546256530971</v>
       </c>
       <c r="D25">
-        <v>0.24251959077219</v>
+        <v>0.1962154622055152</v>
       </c>
       <c r="E25">
-        <v>0.2000835322377199</v>
+        <v>0.1726362563147177</v>
       </c>
       <c r="F25">
-        <v>0.8813523205872968</v>
+        <v>1.485468914126898</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2163424154229858</v>
+        <v>0.1952323776751967</v>
       </c>
       <c r="K25">
-        <v>1.278143849503977</v>
+        <v>0.4898978073256046</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7451725617774723</v>
+        <v>1.642929097180112</v>
       </c>
       <c r="O25">
-        <v>1.915062001929016</v>
+        <v>3.607431865002297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_81/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.466837306709067</v>
+        <v>1.028811312774621</v>
       </c>
       <c r="C2">
-        <v>0.0398775350072782</v>
+        <v>0.136728512981108</v>
       </c>
       <c r="D2">
-        <v>0.1873939752032499</v>
+        <v>0.2062476019962247</v>
       </c>
       <c r="E2">
-        <v>0.166210065083483</v>
+        <v>0.17152535970137</v>
       </c>
       <c r="F2">
-        <v>1.484535831506925</v>
+        <v>0.8236630310591764</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1890045645124232</v>
+        <v>0.1867401625102616</v>
       </c>
       <c r="K2">
-        <v>0.429863010182487</v>
+        <v>1.069671421543461</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.667300998228932</v>
+        <v>0.8030113994381294</v>
       </c>
       <c r="O2">
-        <v>3.623486681340438</v>
+        <v>1.84064139610328</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4287475654596165</v>
+        <v>0.8938311884133441</v>
       </c>
       <c r="C3">
-        <v>0.03478104256780057</v>
+        <v>0.1201571198409397</v>
       </c>
       <c r="D3">
-        <v>0.1815751677574298</v>
+        <v>0.1819657324815438</v>
       </c>
       <c r="E3">
-        <v>0.1620237846593753</v>
+        <v>0.1525436129707529</v>
       </c>
       <c r="F3">
-        <v>1.485436559375884</v>
+        <v>0.7876768494099906</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.184997984565868</v>
+        <v>0.1671968000292097</v>
       </c>
       <c r="K3">
-        <v>0.3893307655359308</v>
+        <v>0.9290491959736471</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.684937734256404</v>
+        <v>0.8445177542130544</v>
       </c>
       <c r="O3">
-        <v>3.638125709781917</v>
+        <v>1.797959449537871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4054897257903463</v>
+        <v>0.811256877653534</v>
       </c>
       <c r="C4">
-        <v>0.03164125845404442</v>
+        <v>0.1099794863876156</v>
       </c>
       <c r="D4">
-        <v>0.1780815867062699</v>
+        <v>0.1671834532188115</v>
       </c>
       <c r="E4">
-        <v>0.1595368129236796</v>
+        <v>0.1410489552884897</v>
       </c>
       <c r="F4">
-        <v>1.486746116947181</v>
+        <v>0.7669914707585122</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1826434735644256</v>
+        <v>0.1554215813993594</v>
       </c>
       <c r="K4">
-        <v>0.3645219074932697</v>
+        <v>0.84293267084891</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.696319255513841</v>
+        <v>0.8710962110194227</v>
       </c>
       <c r="O4">
-        <v>3.648967928411508</v>
+        <v>1.775288918912452</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3960450350762699</v>
+        <v>0.7776701156685135</v>
       </c>
       <c r="C5">
-        <v>0.03035919039118085</v>
+        <v>0.1058299939610237</v>
       </c>
       <c r="D5">
-        <v>0.1766779432699508</v>
+        <v>0.1611886003838094</v>
       </c>
       <c r="E5">
-        <v>0.1585443799780357</v>
+        <v>0.1364018537338438</v>
       </c>
       <c r="F5">
-        <v>1.487470109109765</v>
+        <v>0.7588993509074982</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1817105536292871</v>
+        <v>0.1506752267630915</v>
       </c>
       <c r="K5">
-        <v>0.3544322752698292</v>
+        <v>0.8078829122552804</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.701096241540294</v>
+        <v>0.8821955696481281</v>
       </c>
       <c r="O5">
-        <v>3.653852443779911</v>
+        <v>1.766899378902011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3944787640630807</v>
+        <v>0.7720964797322267</v>
       </c>
       <c r="C6">
-        <v>0.03014614999635512</v>
+        <v>0.1051408141332217</v>
       </c>
       <c r="D6">
-        <v>0.1764460815811617</v>
+        <v>0.1601948330380765</v>
       </c>
       <c r="E6">
-        <v>0.1583808588063071</v>
+        <v>0.1356323535217356</v>
       </c>
       <c r="F6">
-        <v>1.487601826499009</v>
+        <v>0.7575755454283808</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1815572479465573</v>
+        <v>0.1498901256461593</v>
       </c>
       <c r="K6">
-        <v>0.3527581341589325</v>
+        <v>0.8020651709036315</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.701897846966586</v>
+        <v>0.8840546370834246</v>
       </c>
       <c r="O6">
-        <v>3.654691674725214</v>
+        <v>1.765556429556568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4053622168017057</v>
+        <v>0.8108036773274989</v>
       </c>
       <c r="C7">
-        <v>0.03162397839965081</v>
+        <v>0.1099235347859207</v>
       </c>
       <c r="D7">
-        <v>0.1780625754816469</v>
+        <v>0.1671024906084</v>
       </c>
       <c r="E7">
-        <v>0.15952334341506</v>
+        <v>0.1409861369203078</v>
       </c>
       <c r="F7">
-        <v>1.486755110151257</v>
+        <v>0.7668809939612089</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1826307842997466</v>
+        <v>0.1553573648130993</v>
       </c>
       <c r="K7">
-        <v>0.364385752766367</v>
+        <v>0.8424598189353674</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.696383117128624</v>
+        <v>0.8712448223993716</v>
       </c>
       <c r="O7">
-        <v>3.649031914882983</v>
+        <v>1.775172389451797</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4536774065601321</v>
+        <v>0.9821986676253971</v>
       </c>
       <c r="C8">
-        <v>0.03812248416728892</v>
+        <v>0.1310144279858036</v>
       </c>
       <c r="D8">
-        <v>0.1853712760129866</v>
+        <v>0.1978471046236194</v>
       </c>
       <c r="E8">
-        <v>0.1647493505914639</v>
+        <v>0.1649452072048945</v>
       </c>
       <c r="F8">
-        <v>1.484689449904295</v>
+        <v>0.8109516141260187</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1876012014553581</v>
+        <v>0.1799523550029747</v>
       </c>
       <c r="K8">
-        <v>0.4158715922706051</v>
+        <v>1.021129600416742</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.67326747299223</v>
+        <v>0.8170918435923449</v>
       </c>
       <c r="O8">
-        <v>3.628149500113125</v>
+        <v>1.825165771662341</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.549432037787227</v>
+        <v>1.321377920384776</v>
       </c>
       <c r="C9">
-        <v>0.05078036546194653</v>
+        <v>0.1724184347544337</v>
       </c>
       <c r="D9">
-        <v>0.200328170828584</v>
+        <v>0.2592831127534225</v>
       </c>
       <c r="E9">
-        <v>0.1756578958780466</v>
+        <v>0.2133557016578962</v>
       </c>
       <c r="F9">
-        <v>1.486638268594092</v>
+        <v>0.9093909282795494</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1981853946697782</v>
+        <v>0.230171645966692</v>
       </c>
       <c r="K9">
-        <v>0.5174363035352769</v>
+        <v>1.37395402941894</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.632321110503864</v>
+        <v>0.7198801173867611</v>
       </c>
       <c r="O9">
-        <v>3.601907847604792</v>
+        <v>1.953188518430551</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6203807254739786</v>
+        <v>1.573447253626227</v>
       </c>
       <c r="C10">
-        <v>0.06002577945206156</v>
+        <v>0.202967274507273</v>
       </c>
       <c r="D10">
-        <v>0.2116939613100328</v>
+        <v>0.3053275468922863</v>
       </c>
       <c r="E10">
-        <v>0.184073931529646</v>
+        <v>0.2500250128447874</v>
       </c>
       <c r="F10">
-        <v>1.491726132786326</v>
+        <v>0.9902638686792216</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2064727756210232</v>
+        <v>0.2685889349354795</v>
       </c>
       <c r="K10">
-        <v>0.5924049034930761</v>
+        <v>1.635669497547752</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.604908412260271</v>
+        <v>0.6543805935759921</v>
       </c>
       <c r="O10">
-        <v>3.591598606151763</v>
+        <v>2.06837204330597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.652783708896294</v>
+        <v>1.688983674146698</v>
       </c>
       <c r="C11">
-        <v>0.06421956658071792</v>
+        <v>0.2169175697846271</v>
       </c>
       <c r="D11">
-        <v>0.2169456804100776</v>
+        <v>0.326521088377234</v>
       </c>
       <c r="E11">
-        <v>0.1879896311423366</v>
+        <v>0.2670014582502134</v>
       </c>
       <c r="F11">
-        <v>1.494834492637878</v>
+        <v>1.029202416042907</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2103541482696585</v>
+        <v>0.2864698954331999</v>
       </c>
       <c r="K11">
-        <v>0.6265825886491712</v>
+        <v>1.755512389458289</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.593017225745982</v>
+        <v>0.6259749502679655</v>
       </c>
       <c r="O11">
-        <v>3.58885764190461</v>
+        <v>2.126035616379596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.665071854851476</v>
+        <v>1.732880222638329</v>
       </c>
       <c r="C12">
-        <v>0.06580586585292281</v>
+        <v>0.2222100572090255</v>
       </c>
       <c r="D12">
-        <v>0.218945979398228</v>
+        <v>0.3345864992934509</v>
       </c>
       <c r="E12">
-        <v>0.1894849071571585</v>
+        <v>0.2734773576317693</v>
       </c>
       <c r="F12">
-        <v>1.496125647310592</v>
+        <v>1.044282398910028</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2118399368558528</v>
+        <v>0.293305689675833</v>
       </c>
       <c r="K12">
-        <v>0.6395349956356142</v>
+        <v>1.801028019548681</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.588597615513275</v>
+        <v>0.6154280668616938</v>
       </c>
       <c r="O12">
-        <v>3.588099970784299</v>
+        <v>2.148689082913705</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6624245985353525</v>
+        <v>1.723419505992723</v>
       </c>
       <c r="C13">
-        <v>0.06546430897910227</v>
+        <v>0.2210697531897239</v>
       </c>
       <c r="D13">
-        <v>0.2185146656916572</v>
+        <v>0.3328476242161571</v>
       </c>
       <c r="E13">
-        <v>0.1891623182800259</v>
+        <v>0.2720804734126503</v>
       </c>
       <c r="F13">
-        <v>1.495842501159544</v>
+        <v>1.041019334642357</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2115192345895167</v>
+        <v>0.2918304953069821</v>
       </c>
       <c r="K13">
-        <v>0.6367450251275955</v>
+        <v>1.791219123227393</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.589545750708316</v>
+        <v>0.6176900368177254</v>
       </c>
       <c r="O13">
-        <v>3.588250682931459</v>
+        <v>2.143772888481919</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6537943078373019</v>
+        <v>1.692592032646786</v>
       </c>
       <c r="C14">
-        <v>0.06435010879853564</v>
+        <v>0.2173527764436045</v>
       </c>
       <c r="D14">
-        <v>0.2171100146406246</v>
+        <v>0.3271838099457369</v>
       </c>
       <c r="E14">
-        <v>0.188112398481934</v>
+        <v>0.2675332578929002</v>
       </c>
       <c r="F14">
-        <v>1.494938430656617</v>
+        <v>1.030436191333607</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2104760645167119</v>
+        <v>0.2870309457338038</v>
       </c>
       <c r="K14">
-        <v>0.6276479927722391</v>
+        <v>1.75925418455185</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.592651951424741</v>
+        <v>0.6251029903855485</v>
       </c>
       <c r="O14">
-        <v>3.588789690519235</v>
+        <v>2.127882585862352</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6485103116750111</v>
+        <v>1.673728885605271</v>
       </c>
       <c r="C15">
-        <v>0.06366739288553447</v>
+        <v>0.2150773648758388</v>
       </c>
       <c r="D15">
-        <v>0.2162511309136477</v>
+        <v>0.3237198847407967</v>
       </c>
       <c r="E15">
-        <v>0.1874709166665269</v>
+        <v>0.2647542639792704</v>
       </c>
       <c r="F15">
-        <v>1.494399516668281</v>
+        <v>1.023998107077048</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2098391753367537</v>
+        <v>0.2840997037074544</v>
       </c>
       <c r="K15">
-        <v>0.6220770901435912</v>
+        <v>1.739692787460939</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.59456544231844</v>
+        <v>0.6296712514599174</v>
       </c>
       <c r="O15">
-        <v>3.589156349269643</v>
+        <v>2.118257643873562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6182656420854755</v>
+        <v>1.565915876483928</v>
       </c>
       <c r="C16">
-        <v>0.05975145804798387</v>
+        <v>0.2020568435519579</v>
       </c>
       <c r="D16">
-        <v>0.2113523767058183</v>
+        <v>0.3039478407272895</v>
       </c>
       <c r="E16">
-        <v>0.18381978147643</v>
+        <v>0.2489219098362128</v>
       </c>
       <c r="F16">
-        <v>1.491538962727248</v>
+        <v>0.9877645494831313</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2062213585673476</v>
+        <v>0.2674290584261598</v>
       </c>
       <c r="K16">
-        <v>0.5901727514633706</v>
+        <v>1.627855043585868</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.605697185576932</v>
+        <v>0.6562657686456266</v>
       </c>
       <c r="O16">
-        <v>3.591816952347472</v>
+        <v>2.064714615846128</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5997439082712788</v>
+        <v>1.500012720143218</v>
       </c>
       <c r="C17">
-        <v>0.05734603491080748</v>
+        <v>0.1940843286105718</v>
       </c>
       <c r="D17">
-        <v>0.2083679085380936</v>
+        <v>0.2918847113104874</v>
       </c>
       <c r="E17">
-        <v>0.1816022246264168</v>
+        <v>0.2392882481672132</v>
       </c>
       <c r="F17">
-        <v>1.489987383283307</v>
+        <v>0.9661046344979667</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2040304619397801</v>
+        <v>0.2573102755728058</v>
       </c>
       <c r="K17">
-        <v>0.5706190266997453</v>
+        <v>1.55946196481267</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.612674488373436</v>
+        <v>0.6729435129226928</v>
       </c>
       <c r="O17">
-        <v>3.593948301275049</v>
+        <v>2.033258031031409</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5891027858824032</v>
+        <v>1.462187432976862</v>
       </c>
       <c r="C18">
-        <v>0.05596137410451263</v>
+        <v>0.1895036450246437</v>
       </c>
       <c r="D18">
-        <v>0.2066589865260511</v>
+        <v>0.2849693608580992</v>
       </c>
       <c r="E18">
-        <v>0.1803349557725227</v>
+        <v>0.2337747169882931</v>
       </c>
       <c r="F18">
-        <v>1.489169682377977</v>
+        <v>0.9538470563849728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2027808031476326</v>
+        <v>0.2515279023509009</v>
       </c>
       <c r="K18">
-        <v>0.5593792509651223</v>
+        <v>1.520196854029678</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.616742141277443</v>
+        <v>0.6826663596250038</v>
       </c>
       <c r="O18">
-        <v>3.595357620847864</v>
+        <v>2.015656846762056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5855019785529407</v>
+        <v>1.449393660677401</v>
       </c>
       <c r="C19">
-        <v>0.05549236070316965</v>
+        <v>0.1879534832824845</v>
       </c>
       <c r="D19">
-        <v>0.2060816948336992</v>
+        <v>0.2826317746078928</v>
       </c>
       <c r="E19">
-        <v>0.1799072922367344</v>
+        <v>0.2319125114322702</v>
       </c>
       <c r="F19">
-        <v>1.488905659406797</v>
+        <v>0.9497305535149678</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.20235949198063</v>
+        <v>0.2495763728021956</v>
       </c>
       <c r="K19">
-        <v>0.5555748780585645</v>
+        <v>1.50691426124007</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.61812873589201</v>
+        <v>0.6859804317031641</v>
       </c>
       <c r="O19">
-        <v>3.595866294196554</v>
+        <v>2.009780088588826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6017143314647058</v>
+        <v>1.507019752160971</v>
       </c>
       <c r="C20">
-        <v>0.05760221326735859</v>
+        <v>0.1949324948714377</v>
       </c>
       <c r="D20">
-        <v>0.2086848177748379</v>
+        <v>0.2931664373061835</v>
       </c>
       <c r="E20">
-        <v>0.1818374379024164</v>
+        <v>0.240310888367226</v>
       </c>
       <c r="F20">
-        <v>1.49014481815469</v>
+        <v>0.9683894237804509</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2042626014225846</v>
+        <v>0.2583834918903563</v>
       </c>
       <c r="K20">
-        <v>0.5726998329275546</v>
+        <v>1.566734848574981</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.611926102297032</v>
+        <v>0.6711545895509143</v>
       </c>
       <c r="O20">
-        <v>3.593702431526793</v>
+        <v>2.03655531432122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6563287538614873</v>
+        <v>1.701642691675517</v>
       </c>
       <c r="C21">
-        <v>0.06467742573747159</v>
+        <v>0.2184442584823927</v>
       </c>
       <c r="D21">
-        <v>0.2175222811386703</v>
+        <v>0.3288462918298762</v>
       </c>
       <c r="E21">
-        <v>0.1884204469554334</v>
+        <v>0.26886756189446</v>
       </c>
       <c r="F21">
-        <v>1.495200882373851</v>
+        <v>1.033535416280785</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2107820348803102</v>
+        <v>0.2884388810515759</v>
       </c>
       <c r="K21">
-        <v>0.6303197434259857</v>
+        <v>1.768639261278338</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.591737323045725</v>
+        <v>0.6229198533152895</v>
       </c>
       <c r="O21">
-        <v>3.588623764064579</v>
+        <v>2.132527264010264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6921261495429007</v>
+        <v>1.829698219884392</v>
       </c>
       <c r="C22">
-        <v>0.06929097923779182</v>
+        <v>0.2338688698019098</v>
       </c>
       <c r="D22">
-        <v>0.2233655592518744</v>
+        <v>0.3523997658158606</v>
       </c>
       <c r="E22">
-        <v>0.192795573955415</v>
+        <v>0.2878091127135534</v>
       </c>
       <c r="F22">
-        <v>1.499170261686785</v>
+        <v>1.078076851173023</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.215136093617005</v>
+        <v>0.3084620591972964</v>
       </c>
       <c r="K22">
-        <v>0.6680360431938084</v>
+        <v>1.901385592540464</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.579028497735139</v>
+        <v>0.5926230858791497</v>
       </c>
       <c r="O22">
-        <v>3.586938224310842</v>
+        <v>2.200046734101448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6730111066834183</v>
+        <v>1.761266886009309</v>
       </c>
       <c r="C23">
-        <v>0.06682962392098091</v>
+        <v>0.2256303802900703</v>
       </c>
       <c r="D23">
-        <v>0.2202407543040437</v>
+        <v>0.3398058793146816</v>
       </c>
       <c r="E23">
-        <v>0.1904538476578281</v>
+        <v>0.277672522933706</v>
       </c>
       <c r="F23">
-        <v>1.49699090974957</v>
+        <v>1.054115477259771</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2128037272823917</v>
+        <v>0.2977382613942439</v>
       </c>
       <c r="K23">
-        <v>0.6479010011782691</v>
+        <v>1.830456889546298</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.585766971922476</v>
+        <v>0.6086773238773728</v>
       </c>
       <c r="O23">
-        <v>3.587688334067735</v>
+        <v>2.163550418254147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6008234804529877</v>
+        <v>1.503851677303032</v>
       </c>
       <c r="C24">
-        <v>0.05748640048206255</v>
+        <v>0.1945490302752688</v>
       </c>
       <c r="D24">
-        <v>0.2085415216443636</v>
+        <v>0.2925869073074239</v>
       </c>
       <c r="E24">
-        <v>0.1817310741976925</v>
+        <v>0.2398484752565579</v>
       </c>
       <c r="F24">
-        <v>1.490073410332343</v>
+        <v>0.9673558651054748</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2041576202716868</v>
+        <v>0.2578981821038013</v>
       </c>
       <c r="K24">
-        <v>0.5717590944033759</v>
+        <v>1.563446608105096</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.612264272245757</v>
+        <v>0.6719629433231196</v>
       </c>
       <c r="O24">
-        <v>3.593813016155366</v>
+        <v>2.03506311066846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5234216593057113</v>
+        <v>1.229192520981258</v>
       </c>
       <c r="C25">
-        <v>0.04736546256530971</v>
+        <v>0.1612026804787945</v>
       </c>
       <c r="D25">
-        <v>0.1962154622055152</v>
+        <v>0.2425195907720621</v>
       </c>
       <c r="E25">
-        <v>0.1726362563147177</v>
+        <v>0.2000835322377696</v>
       </c>
       <c r="F25">
-        <v>1.485468914126898</v>
+        <v>0.8813523205872684</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1952323776751967</v>
+        <v>0.216342415422929</v>
       </c>
       <c r="K25">
-        <v>0.4898978073256046</v>
+        <v>1.27814384950409</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.642929097180112</v>
+        <v>0.7451725617774714</v>
       </c>
       <c r="O25">
-        <v>3.607431865002297</v>
+        <v>1.915062001929101</v>
       </c>
     </row>
   </sheetData>
